--- a/Transcom-Tagamo3-DataBase/ReadyToSend/Daily_Schedule/Octoper-2025/جدول التجمع يوم 8-10-2025.xlsx
+++ b/Transcom-Tagamo3-DataBase/ReadyToSend/Daily_Schedule/Octoper-2025/جدول التجمع يوم 8-10-2025.xlsx
@@ -2747,7 +2747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2828,6 +2828,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5348,611 +5351,611 @@
     </dxf>
   </dxfs>
   <tableStyles count="152" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{DBC44F9B-779D-4C36-8CB6-61DDA26012D1}">
+    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{1A2D2640-4534-4112-BC86-0E774CCC2F50}">
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{6C264408-5F42-43C1-9AA2-B47F65CD1D0B}">
+    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{D497FCD9-A008-4D7B-96A2-DDAADE5B3B06}">
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{31ADCB29-2275-413E-B382-EE366869A7AC}">
+    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{62C282C7-C091-4153-B0C0-6E61A3A09251}">
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{0269E82A-B7A4-4BAF-8CAB-3AB3E0244FB2}">
+    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{13431206-85D1-4F4F-9D72-9CEF10978CD1}">
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
       <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{5E23A48F-E223-4C46-B06C-0B55E612AC09}">
+    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{7B9783A3-843E-49B7-A55A-C8604A51953D}">
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
       <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{1FFFEC35-4903-4697-9334-6CEF23A9140B}">
+    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{BCE35FCB-63E4-4088-920A-9B25473DE8D8}">
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{C48EE1D2-4A2F-4EC0-A637-BB7614D4FCF3}">
+    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{07586972-5BDF-4208-A3E7-45CED953CDDE}">
       <tableStyleElement type="firstRowStripe" dxfId="13"/>
       <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{61D27700-4BAD-4B08-BBA3-C7F88472A7AB}">
+    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{0298258D-894D-49B9-92D5-DFBC56C65DC5}">
       <tableStyleElement type="firstRowStripe" dxfId="15"/>
       <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{477451E5-3BE0-459F-934E-FA554C1E8C94}">
+    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{34B5C5F0-C6EE-4D12-A685-C42A6CAAD1CE}">
       <tableStyleElement type="firstRowStripe" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{717DFACB-46FF-4683-B2D8-C77687095737}">
+    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{234E0455-E01C-45B9-A45F-BEFD6E23BD82}">
       <tableStyleElement type="firstRowStripe" dxfId="19"/>
       <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{5037C166-3B59-49AE-A506-5FAC98C8C55B}">
+    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{5A993C57-1EB5-4C27-89A8-D883A784892E}">
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
       <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{84364C31-A3AE-47F0-9F3A-D8D202FEBD16}">
+    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{7AC8B9CA-8094-466A-8729-C0FBEEB4CAA8}">
       <tableStyleElement type="firstRowStripe" dxfId="23"/>
       <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{3783C0BF-DA2B-4E29-B6C9-9F222220AABC}">
+    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{5C29264B-68D0-4D9D-99FE-06A1D1B9773F}">
       <tableStyleElement type="firstRowStripe" dxfId="25"/>
       <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{027E68A9-6009-4C20-9879-45AD853D7E9E}">
+    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{670202F4-88BA-41F3-9517-C76985BA39B1}">
       <tableStyleElement type="firstRowStripe" dxfId="27"/>
       <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{7B27ED06-9E79-4E81-8921-C795EB4DEF85}">
+    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{C65B70BB-247F-4686-B655-AA0E7DC9FDBD}">
       <tableStyleElement type="firstRowStripe" dxfId="29"/>
       <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{1C597A68-E990-46EA-B3A4-1E7967BEB3B6}">
+    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{553ACF1F-0BD0-4FA7-8277-4FB54FF88EFE}">
       <tableStyleElement type="firstRowStripe" dxfId="31"/>
       <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{29374404-0745-49A2-B216-DA2E521B8CF0}">
+    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{E27F84EB-ACB2-44A3-A0D0-BD276677C5BB}">
       <tableStyleElement type="firstRowStripe" dxfId="33"/>
       <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{78FE1C58-36F1-47BB-A1BA-00C9F3C8043E}">
+    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{46A52869-A562-476B-A92E-C19869ADBAD7}">
       <tableStyleElement type="firstRowStripe" dxfId="35"/>
       <tableStyleElement type="secondRowStripe" dxfId="34"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{86D3341F-9E09-4F16-82E8-BDD90FBFF7AA}">
+    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{173E8373-DA8B-4514-A5FA-C08B246051D8}">
       <tableStyleElement type="firstRowStripe" dxfId="37"/>
       <tableStyleElement type="secondRowStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{B544F2B3-5B47-435E-AEE8-726472862C27}">
+    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{86922102-9555-4B1B-B90C-C6D86DF4C52D}">
       <tableStyleElement type="firstRowStripe" dxfId="39"/>
       <tableStyleElement type="secondRowStripe" dxfId="38"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{00F1AF5E-FDF2-4196-A048-5D72C4380ACD}">
+    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{52BCA5BC-E41E-4721-B5B8-216890377FAE}">
       <tableStyleElement type="firstRowStripe" dxfId="41"/>
       <tableStyleElement type="secondRowStripe" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{DA8FB913-3131-4A6D-94B7-B408497462A7}">
+    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{A4E9E7B9-8368-4187-AA01-5E0C4D72E84B}">
       <tableStyleElement type="firstRowStripe" dxfId="43"/>
       <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{5DAB0DEC-06CC-40B7-B907-4DD46EE0A71F}">
+    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{A7E9EF3B-EEE9-42B5-B8FD-07F10D535E27}">
       <tableStyleElement type="firstRowStripe" dxfId="45"/>
       <tableStyleElement type="secondRowStripe" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{BCE2A9CD-ACA6-4855-B180-61C71D0852A2}">
+    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{70CAEE83-2A2F-4D33-8767-59BABBCC6175}">
       <tableStyleElement type="firstRowStripe" dxfId="47"/>
       <tableStyleElement type="secondRowStripe" dxfId="46"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{F06721C7-A13A-46CF-BD5A-659E33530FB0}">
+    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{A4C66B19-A126-4870-970C-A38B93027A69}">
       <tableStyleElement type="firstRowStripe" dxfId="49"/>
       <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{BD0420CE-C92D-4DA9-8641-0692B65E8296}">
+    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{57EB0A81-42F1-4796-B547-A97FD190235C}">
       <tableStyleElement type="firstRowStripe" dxfId="51"/>
       <tableStyleElement type="secondRowStripe" dxfId="50"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{E51303DB-1F4B-4F82-B0F5-A2443F1149E3}">
+    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{CA380A88-3E70-4A87-8227-68F6FA010B86}">
       <tableStyleElement type="firstRowStripe" dxfId="53"/>
       <tableStyleElement type="secondRowStripe" dxfId="52"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{4334A0C8-3289-4A58-831A-7B40283629D8}">
+    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{8060166D-48F4-486F-805E-B7DA27AD96ED}">
       <tableStyleElement type="firstRowStripe" dxfId="55"/>
       <tableStyleElement type="secondRowStripe" dxfId="54"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{6BBEB155-5542-44E1-98AD-8792F89B084A}">
+    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{D83B0B92-06BC-4E9B-BDB7-4CDC8F2539B7}">
       <tableStyleElement type="firstRowStripe" dxfId="57"/>
       <tableStyleElement type="secondRowStripe" dxfId="56"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{C869433C-9A19-402D-B7E6-F6F03D6C1A70}">
+    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{688B2DAF-938F-483F-9906-CB3096D2A443}">
       <tableStyleElement type="firstRowStripe" dxfId="59"/>
       <tableStyleElement type="secondRowStripe" dxfId="58"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{7CA43096-3CDE-4204-91C1-50F304D25AF0}">
+    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{7AA2C6C6-DFDB-4D37-BA94-9FBDCFDA6BCD}">
       <tableStyleElement type="firstRowStripe" dxfId="61"/>
       <tableStyleElement type="secondRowStripe" dxfId="60"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{5882DBC3-4C9A-469E-85A6-89CEBFCAC239}">
+    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{A54D68B3-A40F-49FA-A273-AA6B96062E94}">
       <tableStyleElement type="firstRowStripe" dxfId="63"/>
       <tableStyleElement type="secondRowStripe" dxfId="62"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{A0E204E5-128E-4EC4-8CFB-96E343133F02}">
+    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{8EDB772D-990A-4936-B2AB-F2BA2048AD5B}">
       <tableStyleElement type="firstRowStripe" dxfId="65"/>
       <tableStyleElement type="secondRowStripe" dxfId="64"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{C6A9154C-DD3A-426B-B222-533FF5667E65}">
+    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{E65162CF-2FD5-414B-BE10-E6E597C7713C}">
       <tableStyleElement type="firstRowStripe" dxfId="67"/>
       <tableStyleElement type="secondRowStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{C3277D50-AE30-4CC7-8025-EC32601B4883}">
+    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{8F5B3198-29CD-404E-A305-0B9F223F543B}">
       <tableStyleElement type="firstRowStripe" dxfId="69"/>
       <tableStyleElement type="secondRowStripe" dxfId="68"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{73C68168-B0DA-4A5A-B033-D871BB0B130D}">
+    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{0E956B3E-8825-4C39-BA00-7E742EB7F6DD}">
       <tableStyleElement type="firstRowStripe" dxfId="71"/>
       <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{0D21713F-4ED4-4E64-B7FA-ADF275A2BB98}">
+    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{7862D505-88C8-4EF0-A8E8-93F1F962AEC2}">
       <tableStyleElement type="firstRowStripe" dxfId="73"/>
       <tableStyleElement type="secondRowStripe" dxfId="72"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{383FC15E-3B11-43E1-B7E8-F26F0B1F0C16}">
+    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{13ECF438-DDBC-4DCA-A56E-E35115AE3267}">
       <tableStyleElement type="firstRowStripe" dxfId="75"/>
       <tableStyleElement type="secondRowStripe" dxfId="74"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{70F5BD4D-B27D-4079-86C6-F96E273CB28C}">
+    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{5DABF0DB-5D56-4951-B381-BEA9EF21E008}">
       <tableStyleElement type="firstRowStripe" dxfId="77"/>
       <tableStyleElement type="secondRowStripe" dxfId="76"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{EE2CB232-E4B8-4FD7-9721-87CE2A393A4D}">
+    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{AB17F473-03D4-44C0-906E-1FA4BC5E79A6}">
       <tableStyleElement type="firstRowStripe" dxfId="79"/>
       <tableStyleElement type="secondRowStripe" dxfId="78"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{0FC05851-1721-4CC4-9C3A-9436F85CF7EE}">
+    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{D7AD79C3-15AD-41DC-8948-D24B6F3705BB}">
       <tableStyleElement type="firstRowStripe" dxfId="81"/>
       <tableStyleElement type="secondRowStripe" dxfId="80"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{FA357AFA-7A89-4DAF-8BFA-81C5F9EB0441}">
+    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{F48A9A7A-757E-4F76-92DB-25B23F3CE83E}">
       <tableStyleElement type="firstRowStripe" dxfId="83"/>
       <tableStyleElement type="secondRowStripe" dxfId="82"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{07E794D0-9C70-48EB-9C81-ECF6E3F39612}">
+    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{56EFBA03-14F5-4DA3-AF95-12849102A44A}">
       <tableStyleElement type="firstRowStripe" dxfId="85"/>
       <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{5D7A75EC-A0E3-43E9-9AAB-34A97B2E84DC}">
+    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{DDAFFD18-566C-4448-A55B-5987265725EC}">
       <tableStyleElement type="firstRowStripe" dxfId="87"/>
       <tableStyleElement type="secondRowStripe" dxfId="86"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{67B6FE43-AAAE-4B32-9065-AD10F2D454CE}">
+    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{59D20958-A7F0-4E28-9D8F-46EB9492424F}">
       <tableStyleElement type="firstRowStripe" dxfId="89"/>
       <tableStyleElement type="secondRowStripe" dxfId="88"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{50AF2A3C-AB73-4323-9031-BB952BF08189}">
+    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{F628C222-7B13-41B5-A14D-8F99045B959F}">
       <tableStyleElement type="firstRowStripe" dxfId="91"/>
       <tableStyleElement type="secondRowStripe" dxfId="90"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{ABCDE4B2-59F2-4D2C-9671-BED704EB3747}">
+    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{0D53A30D-D053-49F6-BCC0-5AD9FC864407}">
       <tableStyleElement type="firstRowStripe" dxfId="93"/>
       <tableStyleElement type="secondRowStripe" dxfId="92"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{CA26178A-9B52-41E1-9608-29FA7860B635}">
+    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{1FBE657D-53EF-4031-A689-192DCE026F8F}">
       <tableStyleElement type="firstRowStripe" dxfId="95"/>
       <tableStyleElement type="secondRowStripe" dxfId="94"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{78B62EC5-0088-4809-AE9A-403DA2048F8C}">
+    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{7333624F-14CB-4257-9DDA-0E9A5CB70D32}">
       <tableStyleElement type="firstRowStripe" dxfId="97"/>
       <tableStyleElement type="secondRowStripe" dxfId="96"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{298371CA-5EC1-4D97-ABD6-D20FC37C2C7F}">
+    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{9FBB7C9B-F7F5-4C19-A8E3-945C060820B7}">
       <tableStyleElement type="firstRowStripe" dxfId="99"/>
       <tableStyleElement type="secondRowStripe" dxfId="98"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{645239BE-02A9-417E-861A-51FB83BD92FE}">
+    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{8B07882B-5791-4A87-9D86-82110F2C086B}">
       <tableStyleElement type="firstRowStripe" dxfId="101"/>
       <tableStyleElement type="secondRowStripe" dxfId="100"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{6F0F56DC-3A0E-4EDE-9B13-FF6C50D5F869}">
+    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{43EC233A-BE23-4E10-9E40-22929A905DB1}">
       <tableStyleElement type="firstRowStripe" dxfId="103"/>
       <tableStyleElement type="secondRowStripe" dxfId="102"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{64391510-4529-48BC-9104-4B6AC657A856}">
+    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{947D46B7-78B5-45E3-B34E-E991F26BEA17}">
       <tableStyleElement type="firstRowStripe" dxfId="105"/>
       <tableStyleElement type="secondRowStripe" dxfId="104"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{C2FFF004-BEC8-4BB4-93D4-DFF7A1F45176}">
+    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{184DFEBD-1013-4293-AC36-3A3B7787DB6E}">
       <tableStyleElement type="firstRowStripe" dxfId="107"/>
       <tableStyleElement type="secondRowStripe" dxfId="106"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{EB5D69F4-1A30-4043-8E6C-B18EAB31331E}">
+    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{11D16254-7077-444C-8671-6ADAD83D19CE}">
       <tableStyleElement type="firstRowStripe" dxfId="109"/>
       <tableStyleElement type="secondRowStripe" dxfId="108"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{317D5950-B5B6-480D-9176-846A45D70BE1}">
+    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{AAFF6F33-218D-4C43-A75B-163F1E520FDE}">
       <tableStyleElement type="firstRowStripe" dxfId="111"/>
       <tableStyleElement type="secondRowStripe" dxfId="110"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{80C23D98-9686-4285-B429-81385D35CB8B}">
+    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{12322754-DEE9-4A3E-9B8B-E18FAA893DCF}">
       <tableStyleElement type="firstRowStripe" dxfId="113"/>
       <tableStyleElement type="secondRowStripe" dxfId="112"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{12FFB01B-8F9F-479F-9A17-04DD8460AB4E}">
+    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{C6E56855-AF92-4E4A-9B09-1E2107E0FCCF}">
       <tableStyleElement type="firstRowStripe" dxfId="115"/>
       <tableStyleElement type="secondRowStripe" dxfId="114"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{8BA2654A-00CD-44E8-B956-BCC7E1A2974F}">
+    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{BC192EDC-B047-46C5-A064-1C0FE60CF24E}">
       <tableStyleElement type="firstRowStripe" dxfId="117"/>
       <tableStyleElement type="secondRowStripe" dxfId="116"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{6ED3561D-8B7A-4F60-AE4E-D8D5DFA8532E}">
+    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{720DEEEB-1356-4BED-8443-D29EDCF4B9C5}">
       <tableStyleElement type="firstRowStripe" dxfId="119"/>
       <tableStyleElement type="secondRowStripe" dxfId="118"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{9471D79E-B7CC-465D-ABEC-FE86A1782811}">
+    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{E797B63A-3F57-4A70-9080-991586DA6723}">
       <tableStyleElement type="firstRowStripe" dxfId="121"/>
       <tableStyleElement type="secondRowStripe" dxfId="120"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{484D71FB-C3EF-480A-8E52-D8E884479870}">
+    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{5B9018B4-7E35-49EF-B75C-7649AECB775D}">
       <tableStyleElement type="firstRowStripe" dxfId="123"/>
       <tableStyleElement type="secondRowStripe" dxfId="122"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{DFFC66D7-DCF2-4DD0-88F0-B2BAACB7202F}">
+    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{C6D90862-EB40-4878-BAFF-10C0599846E6}">
       <tableStyleElement type="firstRowStripe" dxfId="125"/>
       <tableStyleElement type="secondRowStripe" dxfId="124"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{1886FE0B-2460-4550-8441-850D42CCAA60}">
+    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{088DD641-47B3-45AE-BFF3-8DE248BD4429}">
       <tableStyleElement type="firstRowStripe" dxfId="127"/>
       <tableStyleElement type="secondRowStripe" dxfId="126"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{9DB90C0B-6B5D-40CE-869A-32A512C814F8}">
+    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{59ACA79A-BDA8-44BD-8F93-E80122B968DB}">
       <tableStyleElement type="firstRowStripe" dxfId="129"/>
       <tableStyleElement type="secondRowStripe" dxfId="128"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{5D5755BB-A19D-4D4E-9BC9-CF490A5AE953}">
+    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{61657FE5-1817-4B7C-A538-939B57DD2164}">
       <tableStyleElement type="firstRowStripe" dxfId="131"/>
       <tableStyleElement type="secondRowStripe" dxfId="130"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{87C30D2B-A13E-4C88-A840-54EC6DF23D1B}">
+    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{EF123030-527E-4F43-BD94-463AC8DD17E3}">
       <tableStyleElement type="firstRowStripe" dxfId="133"/>
       <tableStyleElement type="secondRowStripe" dxfId="132"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{D9F992AB-2FC2-425E-9EC8-5456CECC991B}">
+    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{6D7B13DF-7D3B-4CC7-BBD9-754E7C6D9F25}">
       <tableStyleElement type="firstRowStripe" dxfId="135"/>
       <tableStyleElement type="secondRowStripe" dxfId="134"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{89D4AFC3-D414-4764-9427-7229ABD0F8FD}">
+    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{8BAD2825-9A28-42E4-9EFC-415AA24CD861}">
       <tableStyleElement type="firstRowStripe" dxfId="137"/>
       <tableStyleElement type="secondRowStripe" dxfId="136"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{AD4327F8-BB16-4C6B-B47C-4636FC8CF194}">
+    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{8D2A97B4-EB48-49D7-9320-4CAF3008850F}">
       <tableStyleElement type="firstRowStripe" dxfId="139"/>
       <tableStyleElement type="secondRowStripe" dxfId="138"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{16FE9596-16A8-4CC4-A6A3-F723B199432A}">
+    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{EEAD2D35-6F9D-47D5-AD18-93A82883ED32}">
       <tableStyleElement type="firstRowStripe" dxfId="141"/>
       <tableStyleElement type="secondRowStripe" dxfId="140"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{672F623A-3376-48FE-993A-0E13AF3DFC8A}">
+    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{F2B879F7-91C5-424E-AEEC-B0C8F4532AA2}">
       <tableStyleElement type="firstRowStripe" dxfId="143"/>
       <tableStyleElement type="secondRowStripe" dxfId="142"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{FA8D77CC-DFA8-4C1D-AAD4-5FBDC5C22FB7}">
+    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{21A43662-3EC7-4128-9A87-D3EE5B4F8A83}">
       <tableStyleElement type="firstRowStripe" dxfId="145"/>
       <tableStyleElement type="secondRowStripe" dxfId="144"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{A6F63B7B-2A0D-4FE5-9F74-B69DE9128940}">
+    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{76FB1DE7-7A8F-4FB2-A58D-DBD884C9869D}">
       <tableStyleElement type="firstRowStripe" dxfId="147"/>
       <tableStyleElement type="secondRowStripe" dxfId="146"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{91AD40D9-6887-4C3F-A0D7-646F1396C5CA}">
+    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{58B3D8B3-8364-41D1-9B0E-2533D8E7F86A}">
       <tableStyleElement type="firstRowStripe" dxfId="149"/>
       <tableStyleElement type="secondRowStripe" dxfId="148"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{56C5BBF9-B2D4-42D2-ACBA-471864437B83}">
+    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{4A17DF75-6672-4948-9859-7A531743FA39}">
       <tableStyleElement type="firstRowStripe" dxfId="151"/>
       <tableStyleElement type="secondRowStripe" dxfId="150"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{8758C22C-7DCD-4A00-92B8-0B6A6BC5A9BB}">
+    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{AD9FA1F3-DAC3-498D-9C7F-E9C46F5BD811}">
       <tableStyleElement type="firstRowStripe" dxfId="153"/>
       <tableStyleElement type="secondRowStripe" dxfId="152"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{B53A94CC-6915-406C-A59F-B0F37AA7525E}">
+    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{3F827AC6-6932-4BF0-B6E4-39ED33FD14EC}">
       <tableStyleElement type="firstRowStripe" dxfId="155"/>
       <tableStyleElement type="secondRowStripe" dxfId="154"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{195AF60F-A502-4FCA-AC9D-E8230ED1657B}">
+    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{AD257444-014D-4823-B0F7-6BC038B29929}">
       <tableStyleElement type="firstRowStripe" dxfId="157"/>
       <tableStyleElement type="secondRowStripe" dxfId="156"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{E256715F-3813-4572-88EF-6259AA0E6764}">
+    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{3A5997B5-AF29-4260-B781-2EDB1E95FB58}">
       <tableStyleElement type="firstRowStripe" dxfId="159"/>
       <tableStyleElement type="secondRowStripe" dxfId="158"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{94DD6E44-38B4-4DEA-9A1E-2822B3F94546}">
+    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{2B3B787C-8D2A-44AD-9067-0D4BDF18309F}">
       <tableStyleElement type="firstRowStripe" dxfId="161"/>
       <tableStyleElement type="secondRowStripe" dxfId="160"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{5104A196-1094-4711-9368-9EFC82E4C6A9}">
+    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{A9CD0757-075C-4CC2-AF47-6FAD3997E41E}">
       <tableStyleElement type="firstRowStripe" dxfId="163"/>
       <tableStyleElement type="secondRowStripe" dxfId="162"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{5E8BF5E4-3431-4B81-ADFF-04116F316F5B}">
+    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{8184D033-8ADD-4CB5-9FD4-95E2C3BD2E04}">
       <tableStyleElement type="firstRowStripe" dxfId="165"/>
       <tableStyleElement type="secondRowStripe" dxfId="164"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{994C9819-D080-4F0F-9411-C2031C82FE1C}">
+    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{4B6F552E-5F19-4D8B-B5D9-8F38A0990683}">
       <tableStyleElement type="firstRowStripe" dxfId="167"/>
       <tableStyleElement type="secondRowStripe" dxfId="166"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{ABA751D8-BF97-4EF9-802E-9C22DCFE6DE8}">
+    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{FBDA45DB-DE44-4C50-99B1-AD0882D001A3}">
       <tableStyleElement type="firstRowStripe" dxfId="169"/>
       <tableStyleElement type="secondRowStripe" dxfId="168"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{C296A102-0DA1-4126-85E5-12C3E6BA4F02}">
+    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{B41E1EDD-78BA-4CD9-8FFC-EA723A159692}">
       <tableStyleElement type="firstRowStripe" dxfId="171"/>
       <tableStyleElement type="secondRowStripe" dxfId="170"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{6AFE3AED-3DE8-4E22-866A-3CE162C6BC0B}">
+    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{96CB701E-7743-47D0-8E2A-CE72535F45AF}">
       <tableStyleElement type="firstRowStripe" dxfId="173"/>
       <tableStyleElement type="secondRowStripe" dxfId="172"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{ED302B76-7170-4E12-851F-3EE4F0DC4CDF}">
+    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{764A9C36-C9B5-42A0-B319-BAF9368AB853}">
       <tableStyleElement type="firstRowStripe" dxfId="175"/>
       <tableStyleElement type="secondRowStripe" dxfId="174"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{7CACDC59-357B-4D58-8CB9-531995103B5F}">
+    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{F69E0B18-0AE7-4BE0-9522-C259EA20EB87}">
       <tableStyleElement type="firstRowStripe" dxfId="177"/>
       <tableStyleElement type="secondRowStripe" dxfId="176"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{FE268F47-56C9-4323-BF45-F925CDF40156}">
+    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{980BBD82-ECE0-460A-948F-42F55414DAFA}">
       <tableStyleElement type="firstRowStripe" dxfId="179"/>
       <tableStyleElement type="secondRowStripe" dxfId="178"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{7FEC6B73-2F51-4A0F-8932-89DC7BD27D3F}">
+    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{5AF26923-34B4-40A5-8C58-CA1D16328F31}">
       <tableStyleElement type="firstRowStripe" dxfId="181"/>
       <tableStyleElement type="secondRowStripe" dxfId="180"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{3684DA13-D6AA-4A14-812E-D3D01258CE07}">
+    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{71A08B99-E288-4315-85DE-0CD56351E1A3}">
       <tableStyleElement type="firstRowStripe" dxfId="183"/>
       <tableStyleElement type="secondRowStripe" dxfId="182"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{E3D02474-2BB3-40C0-9316-0249645E164E}">
+    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{D99D5FA6-4331-4FE0-8267-15DBE37B3C6D}">
       <tableStyleElement type="firstRowStripe" dxfId="185"/>
       <tableStyleElement type="secondRowStripe" dxfId="184"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{78B69041-36BF-47B5-A809-05FF0261FB8B}">
+    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{B5818181-B801-4A2E-99BC-4AB6D9F0A76B}">
       <tableStyleElement type="firstRowStripe" dxfId="187"/>
       <tableStyleElement type="secondRowStripe" dxfId="186"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{93BDE90B-66DB-4D7B-8204-757CF3D7B2EB}">
+    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{0198D203-D2E2-49B0-8682-8543F8C3B453}">
       <tableStyleElement type="firstRowStripe" dxfId="189"/>
       <tableStyleElement type="secondRowStripe" dxfId="188"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{65CB0360-E4D7-44FA-9670-7A1FF71A00EC}">
+    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{DE61B488-654E-4824-97B8-9E1459561A2B}">
       <tableStyleElement type="firstRowStripe" dxfId="191"/>
       <tableStyleElement type="secondRowStripe" dxfId="190"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{4C2D16A7-516C-434B-9A02-9B82952827A0}">
+    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{8CD23C35-D634-49B1-BFC6-2600671D828F}">
       <tableStyleElement type="firstRowStripe" dxfId="193"/>
       <tableStyleElement type="secondRowStripe" dxfId="192"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{121CB7F0-61C9-428B-80A8-A61D52D684C4}">
+    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{03657647-079E-46CB-8ED1-6F2A44A09146}">
       <tableStyleElement type="firstRowStripe" dxfId="195"/>
       <tableStyleElement type="secondRowStripe" dxfId="194"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{B8E461B8-F465-41B0-A5EF-E5E69B885BD4}">
+    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{64BE10A2-3726-4D15-9CAF-9D9B961F45EE}">
       <tableStyleElement type="firstRowStripe" dxfId="197"/>
       <tableStyleElement type="secondRowStripe" dxfId="196"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{0267AE85-4FA1-4824-A2F0-E5664AC24D62}">
+    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{39E61C3B-5EEF-4229-9AB9-4C9FAD153B49}">
       <tableStyleElement type="firstRowStripe" dxfId="199"/>
       <tableStyleElement type="secondRowStripe" dxfId="198"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{21349595-9E7A-4DDC-A13C-FB60930BD8F8}">
+    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{083E9BCB-D38B-4F36-9CA3-42428C1D66A3}">
       <tableStyleElement type="firstRowStripe" dxfId="201"/>
       <tableStyleElement type="secondRowStripe" dxfId="200"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{ADC467ED-E59D-444F-A475-A38FF10F4F3E}">
+    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{4D95A56F-2101-49C0-80C8-E0FF9E4C7837}">
       <tableStyleElement type="firstRowStripe" dxfId="203"/>
       <tableStyleElement type="secondRowStripe" dxfId="202"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{B4543677-F332-4E41-9584-AA6B7B657BD5}">
+    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{90F0C97B-FC83-42D6-A2CF-D2A56DCD622A}">
       <tableStyleElement type="firstRowStripe" dxfId="205"/>
       <tableStyleElement type="secondRowStripe" dxfId="204"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{7FA7E03B-90E8-47DB-8D62-1DFFC732E23B}">
+    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{A54CC88C-3012-47BD-B089-24B4C11EC259}">
       <tableStyleElement type="firstRowStripe" dxfId="207"/>
       <tableStyleElement type="secondRowStripe" dxfId="206"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{C58B57E9-2952-4643-A09D-3123319884DE}">
+    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{00E9A80A-992E-47C4-B46C-D7ED89953D3A}">
       <tableStyleElement type="firstRowStripe" dxfId="209"/>
       <tableStyleElement type="secondRowStripe" dxfId="208"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{BCD6B3D1-4C89-4F16-A72C-38CCFB276BA5}">
+    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{10570D50-A15D-4A89-AE94-530CC5E56925}">
       <tableStyleElement type="firstRowStripe" dxfId="211"/>
       <tableStyleElement type="secondRowStripe" dxfId="210"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{F41E25C9-4273-49CB-B8A3-4B83DE8EBA38}">
+    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{ABDD228D-E470-4B17-9322-0F97BAAD4383}">
       <tableStyleElement type="firstRowStripe" dxfId="213"/>
       <tableStyleElement type="secondRowStripe" dxfId="212"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{77C7A471-0CDC-47DB-B8C5-81C686167D05}">
+    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{863350E3-4197-49F9-A0A1-6488E5056277}">
       <tableStyleElement type="firstRowStripe" dxfId="215"/>
       <tableStyleElement type="secondRowStripe" dxfId="214"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{BAD309F0-F94D-40D3-A4AB-5DCC988F0660}">
+    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{31ED1662-2775-4610-B604-D9B563E8A567}">
       <tableStyleElement type="firstRowStripe" dxfId="217"/>
       <tableStyleElement type="secondRowStripe" dxfId="216"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{85D87746-7B0D-4EA6-AA3B-19B127234455}">
+    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{0B84B8D0-305B-48A3-A852-DA68658E1EBA}">
       <tableStyleElement type="firstRowStripe" dxfId="219"/>
       <tableStyleElement type="secondRowStripe" dxfId="218"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{DF1FBB30-BCE1-4F24-A225-54AD4323BD86}">
+    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{EAF76A9A-D5B5-461F-B714-09D0745E1A41}">
       <tableStyleElement type="firstRowStripe" dxfId="221"/>
       <tableStyleElement type="secondRowStripe" dxfId="220"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{4779685F-E610-46C1-9D02-3EF018945587}">
+    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{7C9410CE-E8E6-4F3B-B6E6-AEC12A36F432}">
       <tableStyleElement type="firstRowStripe" dxfId="223"/>
       <tableStyleElement type="secondRowStripe" dxfId="222"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{00204046-03F1-4309-B311-52E8A18FF1FA}">
+    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{9C0FD81E-2306-441C-8AEF-751D490CF61B}">
       <tableStyleElement type="firstRowStripe" dxfId="225"/>
       <tableStyleElement type="secondRowStripe" dxfId="224"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{783E2264-C826-484B-939B-8FE291CC431E}">
+    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{6E931401-5D18-4C37-A87A-B9B9F3BEC529}">
       <tableStyleElement type="firstRowStripe" dxfId="227"/>
       <tableStyleElement type="secondRowStripe" dxfId="226"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{A6793DE6-0150-4611-BD8B-4254E6B3B69A}">
+    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{F4796BD6-0896-4DE6-AE04-FA8245D200ED}">
       <tableStyleElement type="firstRowStripe" dxfId="229"/>
       <tableStyleElement type="secondRowStripe" dxfId="228"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{6FC57004-FE6F-44A3-8382-BD94EC248B19}">
+    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{CA0F515F-2951-40C9-970D-095429561806}">
       <tableStyleElement type="firstRowStripe" dxfId="231"/>
       <tableStyleElement type="secondRowStripe" dxfId="230"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{5BD28CEA-D2C4-412E-ABA5-1F04CFF8956C}">
+    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{ABE5328C-1214-481E-8E59-0BFAC0ABCB20}">
       <tableStyleElement type="firstRowStripe" dxfId="233"/>
       <tableStyleElement type="secondRowStripe" dxfId="232"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{C6F7B893-F0FA-4758-808B-62EE5A9F37BE}">
+    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{26FE51C9-201C-4C57-B850-227858534831}">
       <tableStyleElement type="firstRowStripe" dxfId="235"/>
       <tableStyleElement type="secondRowStripe" dxfId="234"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{BAD8FF81-5C52-4198-A663-631355E960DA}">
+    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{3005A974-9081-4885-AA61-8484F6770F0E}">
       <tableStyleElement type="firstRowStripe" dxfId="237"/>
       <tableStyleElement type="secondRowStripe" dxfId="236"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{690278AD-9A5C-44CF-B965-E6F1E35EA63E}">
+    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{BE5DB8E8-0954-45F5-8B3A-9AF58F228D61}">
       <tableStyleElement type="firstRowStripe" dxfId="239"/>
       <tableStyleElement type="secondRowStripe" dxfId="238"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{D1E9D2C6-CC8E-4886-A316-97D2933D4CFA}">
+    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{A242BFD8-80FC-40D3-88BD-A7AF98AAE971}">
       <tableStyleElement type="firstRowStripe" dxfId="241"/>
       <tableStyleElement type="secondRowStripe" dxfId="240"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{C47D3808-92F2-4381-ABCC-B7B22C1EF1BF}">
+    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{401A314E-7566-444B-A3B9-CDF82CDC7C4C}">
       <tableStyleElement type="firstRowStripe" dxfId="243"/>
       <tableStyleElement type="secondRowStripe" dxfId="242"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{152DABAE-B361-4A31-9F4D-A1577A0E5023}">
+    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{4C0CE3A7-4C69-4C0A-9B3D-85D101CE4001}">
       <tableStyleElement type="firstRowStripe" dxfId="245"/>
       <tableStyleElement type="secondRowStripe" dxfId="244"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{32D32E30-908C-46F3-8B6C-3FD59451B467}">
+    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{6F5975D8-B6A0-4252-8DE8-983BE16A0C69}">
       <tableStyleElement type="firstRowStripe" dxfId="247"/>
       <tableStyleElement type="secondRowStripe" dxfId="246"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{DA675C6E-D4C9-44B6-87EC-887D78953351}">
+    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{6E1FC414-A2A9-404C-B478-906FDD4CBEFA}">
       <tableStyleElement type="firstRowStripe" dxfId="249"/>
       <tableStyleElement type="secondRowStripe" dxfId="248"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{5E90D312-B419-4014-A30C-9A50A8366356}">
+    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{00CA2090-1D20-4DF5-B1D4-0D08BB4E8647}">
       <tableStyleElement type="firstRowStripe" dxfId="251"/>
       <tableStyleElement type="secondRowStripe" dxfId="250"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{BDB3C39E-5EDF-4939-A43B-A25DE9E36009}">
+    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{06AF40AA-3405-4F76-8F13-0FED09420EFB}">
       <tableStyleElement type="firstRowStripe" dxfId="253"/>
       <tableStyleElement type="secondRowStripe" dxfId="252"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{B5D000A0-1C5C-42C5-B92C-D1C683EC6E74}">
+    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{380CDE80-3B65-4574-A8B6-EA6A6051178E}">
       <tableStyleElement type="firstRowStripe" dxfId="255"/>
       <tableStyleElement type="secondRowStripe" dxfId="254"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{24483EE5-282B-48FC-BE85-9CA26CAB6A16}">
+    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{6007A7A6-0599-497C-A974-216B7449FD8E}">
       <tableStyleElement type="firstRowStripe" dxfId="257"/>
       <tableStyleElement type="secondRowStripe" dxfId="256"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{0F685F8E-3567-430D-B988-9363AA94C498}">
+    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{2396A7F4-B1E7-49FF-873B-F685015027C2}">
       <tableStyleElement type="firstRowStripe" dxfId="259"/>
       <tableStyleElement type="secondRowStripe" dxfId="258"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{6E252391-6082-44F4-9542-6547BA4469EC}">
+    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{0C021336-10E3-4F9A-AF23-B870358B6A90}">
       <tableStyleElement type="firstRowStripe" dxfId="261"/>
       <tableStyleElement type="secondRowStripe" dxfId="260"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{676E3A7F-B2B7-415F-AC04-DBBD551216BC}">
+    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{B5D5423E-6959-4E54-A0E7-5EEAF4E1B7B1}">
       <tableStyleElement type="firstRowStripe" dxfId="263"/>
       <tableStyleElement type="secondRowStripe" dxfId="262"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{BAFC63CA-5078-4711-9139-FCFD207A47B7}">
+    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{78BA8262-516F-4B98-97F3-9B85A0F98EA7}">
       <tableStyleElement type="firstRowStripe" dxfId="265"/>
       <tableStyleElement type="secondRowStripe" dxfId="264"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{2943F59B-7CC3-4B79-80AF-DB7E05747818}">
+    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{146A284F-FC62-452A-9DA4-D3D7A8220FAF}">
       <tableStyleElement type="firstRowStripe" dxfId="267"/>
       <tableStyleElement type="secondRowStripe" dxfId="266"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{0474EE2F-55EA-41BC-869F-E7E4B17CFB07}">
+    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{AA2C1381-0620-4A2F-9A5E-34AA9799FE5D}">
       <tableStyleElement type="firstRowStripe" dxfId="269"/>
       <tableStyleElement type="secondRowStripe" dxfId="268"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{17A727A4-B351-4CAC-9984-4ABFB60D4275}">
+    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{71480D68-44EC-4D01-BEBB-D6F51CEA48DF}">
       <tableStyleElement type="firstRowStripe" dxfId="271"/>
       <tableStyleElement type="secondRowStripe" dxfId="270"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{D90850DF-BDCC-4D9D-8426-5C2633F75570}">
+    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{5D2766F5-F2EA-412E-9876-26E384342807}">
       <tableStyleElement type="firstRowStripe" dxfId="273"/>
       <tableStyleElement type="secondRowStripe" dxfId="272"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{812652CE-AE70-473B-8084-17ECCC2C87F2}">
+    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{33D9D45F-4D5F-4AA4-B55A-A4C3AA5A0D89}">
       <tableStyleElement type="firstRowStripe" dxfId="275"/>
       <tableStyleElement type="secondRowStripe" dxfId="274"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{30794C42-C1FC-48AA-9FC9-40B3BE7DA0F5}">
+    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{E7D6405C-B9D9-4A2F-8557-C06D70A979E7}">
       <tableStyleElement type="firstRowStripe" dxfId="277"/>
       <tableStyleElement type="secondRowStripe" dxfId="276"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{CF8306B7-88D5-4FDC-90E5-867FD64C1224}">
+    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{CFDB76F7-53E2-4949-98D6-80B5803CDE95}">
       <tableStyleElement type="firstRowStripe" dxfId="279"/>
       <tableStyleElement type="secondRowStripe" dxfId="278"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{E671FFCA-5C60-4E62-A6AD-3D35BA83817C}">
+    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{84ABEBF0-3A7F-4264-B364-5C19701D1C45}">
       <tableStyleElement type="firstRowStripe" dxfId="281"/>
       <tableStyleElement type="secondRowStripe" dxfId="280"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{AD95584E-1B95-4B91-8AA8-31F3DA9DF048}">
+    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{923A01D2-36BC-4E8C-A2B3-A861B14012CA}">
       <tableStyleElement type="firstRowStripe" dxfId="283"/>
       <tableStyleElement type="secondRowStripe" dxfId="282"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{4CB73F4E-A5D3-4232-BD8A-98A89F5C9551}">
+    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{E5B658B7-6329-4E77-974B-09C89A9F0EB1}">
       <tableStyleElement type="firstRowStripe" dxfId="285"/>
       <tableStyleElement type="secondRowStripe" dxfId="284"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{1488E964-8C47-4AAE-B979-D499ED09BF77}">
+    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{F2B40284-24BE-4B0F-89CF-8236A29F5294}">
       <tableStyleElement type="firstRowStripe" dxfId="287"/>
       <tableStyleElement type="secondRowStripe" dxfId="286"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{1A207494-D649-46EB-935A-33C5F732A375}">
+    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{528C7346-5AFE-45EB-8426-EBD12AC63342}">
       <tableStyleElement type="firstRowStripe" dxfId="289"/>
       <tableStyleElement type="secondRowStripe" dxfId="288"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{48703DEE-1EF5-4979-9B89-560B0BE32CB1}">
+    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{6812D891-DC11-4B70-8C35-2AF47D4D8C9C}">
       <tableStyleElement type="firstRowStripe" dxfId="291"/>
       <tableStyleElement type="secondRowStripe" dxfId="290"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{0EF46108-8996-44BB-B877-599A8C90F460}">
+    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{293E891C-D44C-4217-8ECC-0931C28EAD32}">
       <tableStyleElement type="firstRowStripe" dxfId="293"/>
       <tableStyleElement type="secondRowStripe" dxfId="292"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{9710CB18-EE66-4F75-8DD7-160E40362305}">
+    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{418A4485-A5C0-4845-A633-09E69FAE7AD3}">
       <tableStyleElement type="firstRowStripe" dxfId="295"/>
       <tableStyleElement type="secondRowStripe" dxfId="294"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{024A34D2-ED90-4F4D-BC79-933BE7D306F2}">
+    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{2E6B3067-25F0-435E-AADA-85BFA1C865FF}">
       <tableStyleElement type="firstRowStripe" dxfId="297"/>
       <tableStyleElement type="secondRowStripe" dxfId="296"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{21EDCCED-5175-4710-93D3-7438904E53B7}">
+    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{8FC8536E-9818-4D0A-94B1-685177BB35D6}">
       <tableStyleElement type="firstRowStripe" dxfId="299"/>
       <tableStyleElement type="secondRowStripe" dxfId="298"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{0FCEA15E-56CC-4565-A65C-FF4863C13609}">
+    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{E7C9F4EA-675A-40EB-988A-09695C2BD61F}">
       <tableStyleElement type="firstRowStripe" dxfId="301"/>
       <tableStyleElement type="secondRowStripe" dxfId="300"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{16AE88FB-078D-4FF4-8483-7ACCCA04A05B}">
+    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{E04284B7-A162-459E-897C-3745E7703E42}">
       <tableStyleElement type="firstRowStripe" dxfId="303"/>
       <tableStyleElement type="secondRowStripe" dxfId="302"/>
     </tableStyle>
@@ -30097,8 +30100,8 @@
       <c r="B515" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="C515" s="14">
-        <v>0.958333333333333</v>
+      <c r="C515" s="28">
+        <v>0.0833333333333333</v>
       </c>
       <c r="D515" s="15" t="s">
         <v>565</v>
@@ -32805,13 +32808,13 @@
       <c r="A574" s="9">
         <v>0.625</v>
       </c>
-      <c r="B574" s="28"/>
-      <c r="C574" s="28"/>
-      <c r="D574" s="28"/>
-      <c r="E574" s="29"/>
-      <c r="F574" s="28"/>
-      <c r="G574" s="28"/>
-      <c r="H574" s="28"/>
+      <c r="B574" s="29"/>
+      <c r="C574" s="29"/>
+      <c r="D574" s="29"/>
+      <c r="E574" s="30"/>
+      <c r="F574" s="29"/>
+      <c r="G574" s="29"/>
+      <c r="H574" s="29"/>
       <c r="I574" s="21"/>
       <c r="J574" s="20"/>
       <c r="K574" s="19"/>
@@ -33661,13 +33664,13 @@
     </row>
     <row r="594" ht="48.75" customHeight="1" spans="1:33">
       <c r="A594" s="6"/>
-      <c r="B594" s="30"/>
-      <c r="C594" s="30"/>
-      <c r="D594" s="31"/>
+      <c r="B594" s="31"/>
+      <c r="C594" s="31"/>
+      <c r="D594" s="32"/>
       <c r="E594" s="16"/>
-      <c r="F594" s="31"/>
-      <c r="G594" s="31"/>
-      <c r="H594" s="31"/>
+      <c r="F594" s="32"/>
+      <c r="G594" s="32"/>
+      <c r="H594" s="32"/>
       <c r="I594" s="21"/>
       <c r="J594" s="20"/>
       <c r="K594" s="19"/>
@@ -33696,25 +33699,25 @@
     </row>
     <row r="595" ht="48.75" customHeight="1" spans="1:33">
       <c r="A595" s="6"/>
-      <c r="B595" s="30">
+      <c r="B595" s="31">
         <v>0.666666666666667</v>
       </c>
-      <c r="C595" s="30">
+      <c r="C595" s="31">
         <v>0.875</v>
       </c>
-      <c r="D595" s="31">
+      <c r="D595" s="32">
         <v>1115383753</v>
       </c>
       <c r="E595" s="16">
         <v>10331615</v>
       </c>
-      <c r="F595" s="31" t="s">
+      <c r="F595" s="32" t="s">
         <v>624</v>
       </c>
-      <c r="G595" s="31" t="s">
+      <c r="G595" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H595" s="31" t="s">
+      <c r="H595" s="32" t="s">
         <v>54</v>
       </c>
       <c r="I595" s="21"/>
@@ -33745,13 +33748,13 @@
     </row>
     <row r="596" ht="48.75" customHeight="1" spans="1:33">
       <c r="A596" s="6"/>
-      <c r="B596" s="30"/>
-      <c r="C596" s="30"/>
-      <c r="D596" s="31"/>
+      <c r="B596" s="31"/>
+      <c r="C596" s="31"/>
+      <c r="D596" s="32"/>
       <c r="E596" s="16"/>
-      <c r="F596" s="31"/>
-      <c r="G596" s="31"/>
-      <c r="H596" s="31"/>
+      <c r="F596" s="32"/>
+      <c r="G596" s="32"/>
+      <c r="H596" s="32"/>
       <c r="I596" s="21"/>
       <c r="J596" s="20"/>
       <c r="K596" s="19"/>
@@ -35457,13 +35460,13 @@
     </row>
     <row r="636" ht="43.5" customHeight="1" spans="1:33">
       <c r="A636" s="6"/>
-      <c r="B636" s="30"/>
-      <c r="C636" s="30"/>
-      <c r="D636" s="31"/>
+      <c r="B636" s="31"/>
+      <c r="C636" s="31"/>
+      <c r="D636" s="32"/>
       <c r="E636" s="16"/>
-      <c r="F636" s="31"/>
-      <c r="G636" s="31"/>
-      <c r="H636" s="31"/>
+      <c r="F636" s="32"/>
+      <c r="G636" s="32"/>
+      <c r="H636" s="32"/>
       <c r="I636" s="21"/>
       <c r="J636" s="20"/>
       <c r="K636" s="19"/>
@@ -35492,25 +35495,25 @@
     </row>
     <row r="637" ht="43.5" customHeight="1" spans="1:33">
       <c r="A637" s="6"/>
-      <c r="B637" s="30">
+      <c r="B637" s="31">
         <v>0.75</v>
       </c>
-      <c r="C637" s="30">
+      <c r="C637" s="31">
         <v>0.125</v>
       </c>
-      <c r="D637" s="31" t="s">
+      <c r="D637" s="32" t="s">
         <v>646</v>
       </c>
       <c r="E637" s="16">
         <v>10329910</v>
       </c>
-      <c r="F637" s="31" t="s">
+      <c r="F637" s="32" t="s">
         <v>647</v>
       </c>
-      <c r="G637" s="31" t="s">
+      <c r="G637" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H637" s="31" t="s">
+      <c r="H637" s="32" t="s">
         <v>27</v>
       </c>
       <c r="I637" s="21"/>
@@ -35541,13 +35544,13 @@
     </row>
     <row r="638" ht="43.5" customHeight="1" spans="1:33">
       <c r="A638" s="6"/>
-      <c r="B638" s="30"/>
-      <c r="C638" s="30"/>
-      <c r="D638" s="31"/>
+      <c r="B638" s="31"/>
+      <c r="C638" s="31"/>
+      <c r="D638" s="32"/>
       <c r="E638" s="16"/>
-      <c r="F638" s="31"/>
-      <c r="G638" s="31"/>
-      <c r="H638" s="31"/>
+      <c r="F638" s="32"/>
+      <c r="G638" s="32"/>
+      <c r="H638" s="32"/>
       <c r="I638" s="21"/>
       <c r="J638" s="20"/>
       <c r="K638" s="19"/>
@@ -35576,25 +35579,25 @@
     </row>
     <row r="639" ht="43.5" customHeight="1" spans="1:33">
       <c r="A639" s="6"/>
-      <c r="B639" s="30">
+      <c r="B639" s="31">
         <v>0.75</v>
       </c>
-      <c r="C639" s="30">
+      <c r="C639" s="31">
         <v>0.125</v>
       </c>
-      <c r="D639" s="31">
+      <c r="D639" s="32">
         <v>1032845582</v>
       </c>
       <c r="E639" s="16">
         <v>10329913</v>
       </c>
-      <c r="F639" s="31" t="s">
+      <c r="F639" s="32" t="s">
         <v>648</v>
       </c>
-      <c r="G639" s="31" t="s">
+      <c r="G639" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="H639" s="31" t="s">
+      <c r="H639" s="32" t="s">
         <v>192</v>
       </c>
       <c r="I639" s="21"/>
@@ -35625,13 +35628,13 @@
     </row>
     <row r="640" ht="43.5" customHeight="1" spans="1:33">
       <c r="A640" s="6"/>
-      <c r="B640" s="30"/>
-      <c r="C640" s="30"/>
-      <c r="D640" s="31"/>
+      <c r="B640" s="31"/>
+      <c r="C640" s="31"/>
+      <c r="D640" s="32"/>
       <c r="E640" s="16"/>
-      <c r="F640" s="31"/>
-      <c r="G640" s="31"/>
-      <c r="H640" s="31"/>
+      <c r="F640" s="32"/>
+      <c r="G640" s="32"/>
+      <c r="H640" s="32"/>
       <c r="I640" s="21"/>
       <c r="J640" s="20"/>
       <c r="K640" s="19"/>
@@ -35660,25 +35663,25 @@
     </row>
     <row r="641" ht="43.5" customHeight="1" spans="1:33">
       <c r="A641" s="6"/>
-      <c r="B641" s="30">
+      <c r="B641" s="31">
         <v>0.75</v>
       </c>
-      <c r="C641" s="30">
+      <c r="C641" s="31">
         <v>0.125</v>
       </c>
-      <c r="D641" s="31">
+      <c r="D641" s="32">
         <v>1014999118</v>
       </c>
       <c r="E641" s="16">
         <v>10318924</v>
       </c>
-      <c r="F641" s="31" t="s">
+      <c r="F641" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="G641" s="31" t="s">
+      <c r="G641" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="H641" s="31" t="s">
+      <c r="H641" s="32" t="s">
         <v>237</v>
       </c>
       <c r="I641" s="21"/>
@@ -35709,25 +35712,25 @@
     </row>
     <row r="642" ht="43.5" customHeight="1" spans="1:33">
       <c r="A642" s="6"/>
-      <c r="B642" s="30">
+      <c r="B642" s="31">
         <v>0.75</v>
       </c>
-      <c r="C642" s="30">
+      <c r="C642" s="31">
         <v>0.125</v>
       </c>
-      <c r="D642" s="31">
+      <c r="D642" s="32">
         <v>1018941946</v>
       </c>
       <c r="E642" s="16">
         <v>10329902</v>
       </c>
-      <c r="F642" s="31" t="s">
+      <c r="F642" s="32" t="s">
         <v>649</v>
       </c>
-      <c r="G642" s="31" t="s">
+      <c r="G642" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="H642" s="31" t="s">
+      <c r="H642" s="32" t="s">
         <v>68</v>
       </c>
       <c r="I642" s="21"/>
@@ -35758,13 +35761,13 @@
     </row>
     <row r="643" ht="43.5" customHeight="1" spans="1:33">
       <c r="A643" s="6"/>
-      <c r="B643" s="30"/>
-      <c r="C643" s="30"/>
-      <c r="D643" s="31"/>
+      <c r="B643" s="31"/>
+      <c r="C643" s="31"/>
+      <c r="D643" s="32"/>
       <c r="E643" s="16"/>
-      <c r="F643" s="31"/>
-      <c r="G643" s="31"/>
-      <c r="H643" s="31"/>
+      <c r="F643" s="32"/>
+      <c r="G643" s="32"/>
+      <c r="H643" s="32"/>
       <c r="I643" s="21"/>
       <c r="J643" s="20"/>
       <c r="K643" s="19"/>
@@ -36047,13 +36050,13 @@
     </row>
     <row r="650" ht="15" customHeight="1" spans="1:33">
       <c r="A650" s="6"/>
-      <c r="B650" s="32"/>
-      <c r="C650" s="32"/>
-      <c r="D650" s="33"/>
-      <c r="E650" s="34"/>
-      <c r="F650" s="33"/>
-      <c r="G650" s="33"/>
-      <c r="H650" s="33"/>
+      <c r="B650" s="33"/>
+      <c r="C650" s="33"/>
+      <c r="D650" s="34"/>
+      <c r="E650" s="35"/>
+      <c r="F650" s="34"/>
+      <c r="G650" s="34"/>
+      <c r="H650" s="34"/>
       <c r="I650" s="21"/>
       <c r="J650" s="20"/>
       <c r="K650" s="19"/>
